--- a/rotmic/static/uploadexample_oligocomponent.xlsx
+++ b/rotmic/static/uploadexample_oligocomponent.xlsx
@@ -69,9 +69,6 @@
     <t>Templates</t>
   </si>
   <si>
-    <t>Tm</t>
-  </si>
-  <si>
     <t>assembly</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>hypothetical</t>
+  </si>
+  <si>
+    <t>Tm in C</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -533,7 +533,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>15</v>
@@ -547,28 +547,28 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="10">
         <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -576,7 +576,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="10"/>
     </row>
@@ -585,7 +585,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -594,7 +594,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="10"/>
     </row>
@@ -603,7 +603,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="10"/>
     </row>
@@ -612,7 +612,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="10"/>
     </row>
@@ -621,7 +621,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="10"/>
     </row>
@@ -630,7 +630,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="10"/>
     </row>
@@ -639,7 +639,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="10"/>
     </row>
@@ -648,7 +648,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="10"/>
     </row>
@@ -657,7 +657,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="10"/>
     </row>
@@ -666,7 +666,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" s="10"/>
     </row>
@@ -675,7 +675,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="10"/>
     </row>
@@ -684,7 +684,7 @@
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="10"/>
     </row>
@@ -693,7 +693,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="10"/>
     </row>
@@ -702,7 +702,7 @@
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="10"/>
     </row>
@@ -711,7 +711,7 @@
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" s="10"/>
     </row>
@@ -720,7 +720,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23" s="10"/>
     </row>
@@ -729,7 +729,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24" s="10"/>
     </row>
@@ -738,7 +738,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" s="10"/>
     </row>
@@ -747,7 +747,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26" s="10"/>
     </row>
@@ -756,7 +756,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E27" s="10"/>
     </row>
@@ -765,7 +765,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E28" s="10"/>
     </row>
@@ -774,7 +774,7 @@
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29" s="10"/>
     </row>
@@ -783,7 +783,7 @@
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E30" s="10"/>
     </row>
@@ -792,7 +792,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E31" s="10"/>
     </row>
@@ -801,7 +801,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E32" s="10"/>
     </row>
@@ -810,7 +810,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33" s="10"/>
     </row>
@@ -819,7 +819,7 @@
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E34" s="10"/>
     </row>
@@ -828,7 +828,7 @@
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E35" s="10"/>
     </row>
@@ -837,7 +837,7 @@
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E36" s="10"/>
     </row>
@@ -846,7 +846,7 @@
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E37" s="10"/>
     </row>
@@ -855,7 +855,7 @@
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E38" s="10"/>
     </row>
@@ -864,7 +864,7 @@
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E39" s="10"/>
     </row>
@@ -873,7 +873,7 @@
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E40" s="10"/>
     </row>
@@ -882,7 +882,7 @@
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E41" s="10"/>
     </row>
@@ -891,7 +891,7 @@
         <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E42" s="10"/>
     </row>
@@ -900,7 +900,7 @@
         <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E43" s="10"/>
     </row>
@@ -960,7 +960,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L5" t="s">
         <v>11</v>
@@ -971,7 +971,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L6" t="s">
         <v>11</v>
@@ -979,10 +979,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L7" t="s">
         <v>11</v>

--- a/rotmic/static/uploadexample_oligocomponent.xlsx
+++ b/rotmic/static/uploadexample_oligocomponent.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -60,12 +60,6 @@
     <t>Clear the example data (except Status and Type columns) before inserting your own data.</t>
   </si>
   <si>
-    <t>Import of modified Cell entries</t>
-  </si>
-  <si>
-    <t>If left empty, names will be auto-generated from plasmid and strain names.</t>
-  </si>
-  <si>
     <t>Templates</t>
   </si>
   <si>
@@ -97,6 +91,9 @@
   </si>
   <si>
     <t>Tm in C</t>
+  </si>
+  <si>
+    <t>Import of Oligonucleotides</t>
   </si>
 </sst>
 </file>
@@ -487,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -506,7 +503,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -514,69 +511,73 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>14</v>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>5</v>
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="10">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="10">
-        <v>62</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:8">
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="10"/>
     </row>
@@ -585,7 +586,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -594,7 +595,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9" s="10"/>
     </row>
@@ -603,7 +604,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" s="10"/>
     </row>
@@ -612,7 +613,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E11" s="10"/>
     </row>
@@ -621,7 +622,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E12" s="10"/>
     </row>
@@ -630,7 +631,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13" s="10"/>
     </row>
@@ -639,7 +640,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E14" s="10"/>
     </row>
@@ -648,7 +649,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E15" s="10"/>
     </row>
@@ -657,7 +658,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E16" s="10"/>
     </row>
@@ -666,7 +667,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E17" s="10"/>
     </row>
@@ -675,7 +676,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E18" s="10"/>
     </row>
@@ -684,7 +685,7 @@
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E19" s="10"/>
     </row>
@@ -693,7 +694,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E20" s="10"/>
     </row>
@@ -702,7 +703,7 @@
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E21" s="10"/>
     </row>
@@ -711,7 +712,7 @@
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E22" s="10"/>
     </row>
@@ -720,7 +721,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E23" s="10"/>
     </row>
@@ -729,7 +730,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E24" s="10"/>
     </row>
@@ -738,7 +739,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E25" s="10"/>
     </row>
@@ -747,7 +748,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E26" s="10"/>
     </row>
@@ -756,7 +757,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E27" s="10"/>
     </row>
@@ -765,7 +766,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E28" s="10"/>
     </row>
@@ -774,7 +775,7 @@
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E29" s="10"/>
     </row>
@@ -783,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E30" s="10"/>
     </row>
@@ -792,7 +793,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E31" s="10"/>
     </row>
@@ -801,7 +802,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E32" s="10"/>
     </row>
@@ -810,7 +811,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E33" s="10"/>
     </row>
@@ -819,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E34" s="10"/>
     </row>
@@ -828,7 +829,7 @@
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E35" s="10"/>
     </row>
@@ -837,7 +838,7 @@
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E36" s="10"/>
     </row>
@@ -846,7 +847,7 @@
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E37" s="10"/>
     </row>
@@ -855,7 +856,7 @@
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E38" s="10"/>
     </row>
@@ -864,7 +865,7 @@
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E39" s="10"/>
     </row>
@@ -873,7 +874,7 @@
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E40" s="10"/>
     </row>
@@ -882,7 +883,7 @@
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E41" s="10"/>
     </row>
@@ -891,25 +892,16 @@
         <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E42" s="10"/>
-    </row>
-    <row r="43" spans="3:5">
-      <c r="C43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C42">
       <formula1>statusChoices</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D42">
       <formula1>typeChoices</formula1>
     </dataValidation>
   </dataValidations>
@@ -960,7 +952,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L5" t="s">
         <v>11</v>
@@ -971,7 +963,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L6" t="s">
         <v>11</v>
@@ -979,10 +971,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L7" t="s">
         <v>11</v>

--- a/rotmic/static/uploadexample_oligocomponent.xlsx
+++ b/rotmic/static/uploadexample_oligocomponent.xlsx
@@ -11,6 +11,7 @@
     <sheet name="predefined" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="purificationChoices">predefined!$E$5:$E$9</definedName>
     <definedName name="statusChoices">predefined!$A$5:$A$8</definedName>
     <definedName name="typeChoices">predefined!$C$5:$C$7</definedName>
   </definedNames>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -48,18 +49,12 @@
     <t>available</t>
   </si>
   <si>
-    <t>This worksheet contains pre-defined choices for the input sheet -- do not modify!</t>
-  </si>
-  <si>
     <t>See: http://office.microsoft.com/en-001/excel-help/insert-or-delete-a-drop-down-list-HP010072599.aspx</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Clear the example data (except Status and Type columns) before inserting your own data.</t>
-  </si>
-  <si>
     <t>Templates</t>
   </si>
   <si>
@@ -78,29 +73,65 @@
     <t>ATGCCCGGACTGGCC</t>
   </si>
   <si>
-    <t>mtp0001, sbf0001</t>
-  </si>
-  <si>
     <t>sbo0001</t>
   </si>
   <si>
     <t>mCit_FW</t>
   </si>
   <si>
-    <t>hypothetical</t>
-  </si>
-  <si>
-    <t>Tm in C</t>
-  </si>
-  <si>
     <t>Import of Oligonucleotides</t>
+  </si>
+  <si>
+    <t>Reverse Primers</t>
+  </si>
+  <si>
+    <t>sbp0001, sbf0001</t>
+  </si>
+  <si>
+    <t>This worksheet contains pre-defined choices for the input sheet -- do not modify unless you know what you are doing!</t>
+  </si>
+  <si>
+    <t>Purification</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>desalting</t>
+  </si>
+  <si>
+    <t>Reverse-phase cartridge</t>
+  </si>
+  <si>
+    <t>HPLC</t>
+  </si>
+  <si>
+    <t>PAGE</t>
+  </si>
+  <si>
+    <t>sbo0002</t>
+  </si>
+  <si>
+    <t>mCit_RV</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>CCGATAGGCAATTCC</t>
+  </si>
+  <si>
+    <t>Tm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +159,13 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -180,15 +218,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -197,6 +233,121 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2981325</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="15230475" cy="809626"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Clear the example data before inserting your own data (except Status</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>, Type,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> and Purification columns to</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> preserve the</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> drop-down boxes).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Fields marked in </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Bold</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> are required. Rows without any value in the first column will be ignored.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Templates: Comma-seperated</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> list of DNA construct IDs (or names, but using IDs is more safe).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Reverse Primers: Comma-seperated list of other Oligo IDs (or names, see above).</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -484,429 +635,579 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="27.7109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="8"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="8" width="45.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="9" max="9" width="40.5703125" customWidth="1"/>
+    <col min="10" max="10" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="9">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="I8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="10">
-        <v>62</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="9">
+        <v>60</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="3:5">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="3:6">
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="3:5">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="3:6">
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="3:5">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="3:6">
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="3:5">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="3:6">
       <c r="C20" t="s">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="3:5">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="3:6">
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="3:5">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="3:6">
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="3:5">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="3:6">
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="3:5">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="3:6">
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="3:5">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="3:6">
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="3:5">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="3:6">
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="3:5">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="3:6">
       <c r="C27" t="s">
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="3:5">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="3:6">
       <c r="C28" t="s">
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="3:5">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="3:6">
       <c r="C29" t="s">
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" spans="3:5">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="3:6">
       <c r="C30" t="s">
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" spans="3:5">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="3:6">
       <c r="C31" t="s">
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" spans="3:5">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="3:6">
       <c r="C32" t="s">
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="3:5">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="3:6">
       <c r="C33" t="s">
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="3:5">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="3:6">
       <c r="C34" t="s">
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" spans="3:5">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="3:6">
       <c r="C35" t="s">
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="3:5">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="3:6">
       <c r="C36" t="s">
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="3:5">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="3:6">
       <c r="C37" t="s">
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" spans="3:5">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="3:6">
       <c r="C38" t="s">
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39" spans="3:5">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="3:6">
       <c r="C39" t="s">
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="10"/>
-    </row>
-    <row r="40" spans="3:5">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="3:6">
       <c r="C40" t="s">
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="10"/>
-    </row>
-    <row r="41" spans="3:5">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="3:6">
       <c r="C41" t="s">
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="10"/>
-    </row>
-    <row r="42" spans="3:5">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="3:6">
       <c r="C42" t="s">
         <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="3:6">
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="3:6">
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="3:6">
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="9"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C42">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E45">
+      <formula1>purificationChoices</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C45">
       <formula1>statusChoices</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D45">
       <formula1>typeChoices</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="2400" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -915,25 +1216,27 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="3.28515625" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
     <col min="10" max="10" width="48.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -943,8 +1246,11 @@
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -952,10 +1258,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
       </c>
       <c r="L5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -963,79 +1272,91 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
       </c>
       <c r="L7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
       <c r="L8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:12">
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
       <c r="L9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="L10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="L11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="L12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="L13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="L14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="L15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="L16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="12:12">
       <c r="L17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="12:12">
       <c r="L18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/rotmic/static/uploadexample_oligocomponent.xlsx
+++ b/rotmic/static/uploadexample_oligocomponent.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -638,7 +638,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -753,6 +753,9 @@
       </c>
       <c r="G9" t="s">
         <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
       </c>
       <c r="I9" t="s">
         <v>31</v>

--- a/rotmic/static/uploadexample_oligocomponent.xlsx
+++ b/rotmic/static/uploadexample_oligocomponent.xlsx
@@ -241,14 +241,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>2981325</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -257,8 +257,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="190500"/>
-          <a:ext cx="15230475" cy="809626"/>
+          <a:off x="0" y="190499"/>
+          <a:ext cx="15230475" cy="962025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -340,7 +340,15 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Reverse Primers: Comma-seperated list of other Oligo IDs (or names, see above).</a:t>
+            <a:t>Reverse Primers: Comma-seperated list of other Oligo IDs (or names, see above) -- Note: Oligos must already exist or be defined in this table </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1" baseline="0"/>
+            <a:t>before</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> the referencing entry. The relation is symmetric . E.g. registering pri0001 as reverse of pri0002 automatically means that pri0002 is also reverse of pri0001. </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -638,7 +646,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/rotmic/static/uploadexample_oligocomponent.xlsx
+++ b/rotmic/static/uploadexample_oligocomponent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="75" windowWidth="26265" windowHeight="15390"/>
+    <workbookView xWindow="45" yWindow="75" windowWidth="27495" windowHeight="15390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Tm</t>
+  </si>
+  <si>
+    <t>Projects</t>
   </si>
 </sst>
 </file>
@@ -246,8 +249,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>2981325</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -258,7 +261,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="190499"/>
-          <a:ext cx="15230475" cy="962025"/>
+          <a:ext cx="11087100" cy="962025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -348,8 +351,49 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> the referencing entry. The relation is symmetric . E.g. registering pri0001 as reverse of pri0002 automatically means that pri0002 is also reverse of pri0001. </a:t>
+            <a:t> the referencing entry. The relation is symmetric . E.g. registering pri0001 as reverse of pri0002 automatically means that pri0002 is also reverse of pri0001.</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Projects are referenced by their name, separated by comma (you can only refer to projects that are already registered on the server).</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -643,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -657,134 +701,128 @@
     <col min="5" max="5" width="22.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" customWidth="1"/>
-    <col min="9" max="9" width="40.5703125" customWidth="1"/>
-    <col min="10" max="10" width="45.140625" customWidth="1"/>
+    <col min="8" max="9" width="22.7109375" customWidth="1"/>
+    <col min="10" max="10" width="40.5703125" customWidth="1"/>
+    <col min="11" max="11" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="2"/>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="10" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="9">
-        <v>59</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="9">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
         <v>17</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J10" t="s">
         <v>31</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -796,7 +834,7 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="C12" t="s">
         <v>8</v>
       </c>
@@ -808,7 +846,7 @@
       </c>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="C13" t="s">
         <v>8</v>
       </c>
@@ -820,7 +858,7 @@
       </c>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="C14" t="s">
         <v>8</v>
       </c>
@@ -832,7 +870,7 @@
       </c>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="C15" t="s">
         <v>8</v>
       </c>
@@ -844,7 +882,7 @@
       </c>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="C16" t="s">
         <v>8</v>
       </c>
@@ -1204,15 +1242,27 @@
       </c>
       <c r="F45" s="9"/>
     </row>
+    <row r="46" spans="3:6">
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="9"/>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E46">
       <formula1>purificationChoices</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C46">
       <formula1>statusChoices</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D46">
       <formula1>typeChoices</formula1>
     </dataValidation>
   </dataValidations>

--- a/rotmic/static/uploadexample_oligocomponent.xlsx
+++ b/rotmic/static/uploadexample_oligocomponent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="75" windowWidth="27495" windowHeight="15390"/>
+    <workbookView xWindow="1740" yWindow="-45" windowWidth="27495" windowHeight="15390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Projects</t>
+  </si>
+  <si>
+    <t>Authors</t>
   </si>
 </sst>
 </file>
@@ -134,7 +137,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +169,12 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -208,7 +217,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -228,6 +237,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -248,9 +258,9 @@
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -329,6 +339,55 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t> are required. Rows without any value in the first column will be ignored.</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Authors: provide</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> one or more rotmic user names separated by comma.  Leave empty to register the user who is uploading the file as single author.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -687,582 +746,589 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="27.7109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="9" width="22.7109375" customWidth="1"/>
-    <col min="10" max="10" width="40.5703125" customWidth="1"/>
-    <col min="11" max="11" width="45.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="10" width="22.7109375" customWidth="1"/>
+    <col min="11" max="11" width="40.5703125" customWidth="1"/>
+    <col min="12" max="12" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="2"/>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="10" t="s">
+    <row r="7" spans="1:12">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E10" t="s">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F10" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="9">
+      <c r="G10" s="9">
         <v>59</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H10" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E11" t="s">
         <v>13</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F11" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="9">
+      <c r="G11" s="9">
         <v>60</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H11" t="s">
         <v>21</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I11" t="s">
         <v>17</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K11" t="s">
         <v>31</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
       <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
       <c r="E13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
       <c r="E14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
       <c r="E15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
       <c r="E16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="3:6">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="3:7">
       <c r="C17" t="s">
         <v>8</v>
       </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
       <c r="E17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="3:6">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="3:7">
       <c r="C18" t="s">
         <v>8</v>
       </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
       <c r="E18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="3:6">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="3:7">
       <c r="C19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
       <c r="E19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="3:6">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="3:7">
       <c r="C20" t="s">
         <v>8</v>
       </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
       <c r="E20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="3:6">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="3:7">
       <c r="C21" t="s">
         <v>8</v>
       </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
       <c r="E21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="3:6">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="3:7">
       <c r="C22" t="s">
         <v>8</v>
       </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
       <c r="E22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="3:6">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="3:7">
       <c r="C23" t="s">
         <v>8</v>
       </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
       <c r="E23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="3:6">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="3:7">
       <c r="C24" t="s">
         <v>8</v>
       </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
       <c r="E24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="3:6">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="3:7">
       <c r="C25" t="s">
         <v>8</v>
       </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
       <c r="E25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="3:6">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="3:7">
       <c r="C26" t="s">
         <v>8</v>
       </c>
-      <c r="D26" t="s">
-        <v>14</v>
-      </c>
       <c r="E26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="3:6">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="3:7">
       <c r="C27" t="s">
         <v>8</v>
       </c>
-      <c r="D27" t="s">
-        <v>14</v>
-      </c>
       <c r="E27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="3:6">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="3:7">
       <c r="C28" t="s">
         <v>8</v>
       </c>
-      <c r="D28" t="s">
-        <v>14</v>
-      </c>
       <c r="E28" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="3:6">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="3:7">
       <c r="C29" t="s">
         <v>8</v>
       </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
       <c r="E29" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="3:6">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="3:7">
       <c r="C30" t="s">
         <v>8</v>
       </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
       <c r="E30" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="3:6">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="3:7">
       <c r="C31" t="s">
         <v>8</v>
       </c>
-      <c r="D31" t="s">
-        <v>14</v>
-      </c>
       <c r="E31" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="3:6">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="3:7">
       <c r="C32" t="s">
         <v>8</v>
       </c>
-      <c r="D32" t="s">
-        <v>14</v>
-      </c>
       <c r="E32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="3:6">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="3:7">
       <c r="C33" t="s">
         <v>8</v>
       </c>
-      <c r="D33" t="s">
-        <v>14</v>
-      </c>
       <c r="E33" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="9"/>
-    </row>
-    <row r="34" spans="3:6">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="3:7">
       <c r="C34" t="s">
         <v>8</v>
       </c>
-      <c r="D34" t="s">
-        <v>14</v>
-      </c>
       <c r="E34" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" s="9"/>
-    </row>
-    <row r="35" spans="3:6">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="3:7">
       <c r="C35" t="s">
         <v>8</v>
       </c>
-      <c r="D35" t="s">
-        <v>14</v>
-      </c>
       <c r="E35" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="9"/>
-    </row>
-    <row r="36" spans="3:6">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="3:7">
       <c r="C36" t="s">
         <v>8</v>
       </c>
-      <c r="D36" t="s">
-        <v>14</v>
-      </c>
       <c r="E36" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="9"/>
-    </row>
-    <row r="37" spans="3:6">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="3:7">
       <c r="C37" t="s">
         <v>8</v>
       </c>
-      <c r="D37" t="s">
-        <v>14</v>
-      </c>
       <c r="E37" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="9"/>
-    </row>
-    <row r="38" spans="3:6">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="3:7">
       <c r="C38" t="s">
         <v>8</v>
       </c>
-      <c r="D38" t="s">
-        <v>14</v>
-      </c>
       <c r="E38" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="9"/>
-    </row>
-    <row r="39" spans="3:6">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="9"/>
+    </row>
+    <row r="39" spans="3:7">
       <c r="C39" t="s">
         <v>8</v>
       </c>
-      <c r="D39" t="s">
-        <v>14</v>
-      </c>
       <c r="E39" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="9"/>
-    </row>
-    <row r="40" spans="3:6">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="3:7">
       <c r="C40" t="s">
         <v>8</v>
       </c>
-      <c r="D40" t="s">
-        <v>14</v>
-      </c>
       <c r="E40" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" s="9"/>
-    </row>
-    <row r="41" spans="3:6">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="3:7">
       <c r="C41" t="s">
         <v>8</v>
       </c>
-      <c r="D41" t="s">
-        <v>14</v>
-      </c>
       <c r="E41" t="s">
-        <v>24</v>
-      </c>
-      <c r="F41" s="9"/>
-    </row>
-    <row r="42" spans="3:6">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="3:7">
       <c r="C42" t="s">
         <v>8</v>
       </c>
-      <c r="D42" t="s">
-        <v>14</v>
-      </c>
       <c r="E42" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42" s="9"/>
-    </row>
-    <row r="43" spans="3:6">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="3:7">
       <c r="C43" t="s">
         <v>8</v>
       </c>
-      <c r="D43" t="s">
-        <v>14</v>
-      </c>
       <c r="E43" t="s">
-        <v>24</v>
-      </c>
-      <c r="F43" s="9"/>
-    </row>
-    <row r="44" spans="3:6">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="9"/>
+    </row>
+    <row r="44" spans="3:7">
       <c r="C44" t="s">
         <v>8</v>
       </c>
-      <c r="D44" t="s">
-        <v>14</v>
-      </c>
       <c r="E44" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="9"/>
-    </row>
-    <row r="45" spans="3:6">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" s="9"/>
+    </row>
+    <row r="45" spans="3:7">
       <c r="C45" t="s">
         <v>8</v>
       </c>
-      <c r="D45" t="s">
-        <v>14</v>
-      </c>
       <c r="E45" t="s">
-        <v>24</v>
-      </c>
-      <c r="F45" s="9"/>
-    </row>
-    <row r="46" spans="3:6">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="9"/>
+    </row>
+    <row r="46" spans="3:7">
       <c r="C46" t="s">
         <v>8</v>
       </c>
-      <c r="D46" t="s">
-        <v>14</v>
-      </c>
       <c r="E46" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" spans="3:7">
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:F47">
       <formula1>purificationChoices</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10:C47">
       <formula1>statusChoices</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D46">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E47">
       <formula1>typeChoices</formula1>
     </dataValidation>
   </dataValidations>
